--- a/thanh.xlsx
+++ b/thanh.xlsx
@@ -21,12 +21,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module1!$A$8:$H$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module2!$A$8:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module2!$A$8:$H$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestDesign!$A$1:$F$15</definedName>
     <definedName name="_Toc301930468" localSheetId="2">TestDesign!#REF!</definedName>
     <definedName name="_Toc301930478" localSheetId="2">TestDesign!#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">TestDesign!$A$1:$F$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Module2!$A$1:$K$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">TestDesign!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -241,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="174">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -661,27 +662,9 @@
     <t>Update</t>
   </si>
   <si>
-    <t>Attach file without permission on Defect view or edit screen</t>
-  </si>
-  <si>
-    <t>Input [Created date] &gt;= [Fixed date] in  Defect view or edit screen click save</t>
-  </si>
-  <si>
-    <t>Input [Created date] &gt;= Due date] in  Defect view or edit screen click save</t>
-  </si>
-  <si>
-    <t>Input unvalid format then click save</t>
-  </si>
-  <si>
-    <t>leave empty required field then click save</t>
-  </si>
-  <si>
     <t>Enter defect view or edit screen</t>
   </si>
   <si>
-    <t>1. Check layout</t>
-  </si>
-  <si>
     <t>Every layout and component display correct with design</t>
   </si>
   <si>
@@ -712,9 +695,6 @@
     <t>Function Default Value</t>
   </si>
   <si>
-    <t>Function Layout</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Check defect owner field </t>
   </si>
   <si>
@@ -757,10 +737,162 @@
     <t>1. Check testcase id field</t>
   </si>
   <si>
-    <t>Current value of Defect</t>
-  </si>
-  <si>
     <t>Now + 1 day</t>
+  </si>
+  <si>
+    <t>Fixed date must &gt;= Created date</t>
+  </si>
+  <si>
+    <t>1. Input Created Date = today
+2. Input Fixed Date = today + 1 day
+3. Input Due Date = today
+4. Save</t>
+  </si>
+  <si>
+    <t>1. Input Created Date = today
+2. Input Fixed Date = today 
+3. Input Due Date = today -1
+4. Save</t>
+  </si>
+  <si>
+    <t>1. Input Created Date = today
+2. Input Fixed Date = today
+3. Input Due Date = today + 1
+4. Save</t>
+  </si>
+  <si>
+    <t>1. Input Created Date = today
+2. Input Fixed Date = today - 1
+3. Input Due Date = today
+4. Save</t>
+  </si>
+  <si>
+    <t>1. Input Created Date = today + 1
+2. Input Fixed Date = today - 1
+3. Input Due Date = today -1
+4. Save</t>
+  </si>
+  <si>
+    <t>1. Input Created Date = today + 1
+2. Input Fixed Date = today - 1
+3. Input Due Date = today + 1
+4. Save</t>
+  </si>
+  <si>
+    <t>1. Input Created Date = today + 1
+2. Input Fixed Date = today 
+3. Input Due Date = today 
+4. Save</t>
+  </si>
+  <si>
+    <t>1. Input Created Date = today + 1
+2. Input Fixed Date = today + 1
+3. Input Due Date = today -1
+4. Save</t>
+  </si>
+  <si>
+    <t>1. Input Created Date = today + 1
+2. Input Fixed Date = today + 1
+3. Input Due Date = today + 1
+4. Save</t>
+  </si>
+  <si>
+    <t>Created date &lt;= current date</t>
+  </si>
+  <si>
+    <t>Due date &gt;= Created date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created date &lt;= current date
+Due date &gt;= Created date
+Fixed date must &gt;= Created date
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created date &lt;= current date
+Fixed date must &gt;= Created date
+</t>
+  </si>
+  <si>
+    <t>Update ok without error</t>
+  </si>
+  <si>
+    <t>Update ok</t>
+  </si>
+  <si>
+    <t>Function Date Constrain</t>
+  </si>
+  <si>
+    <t>Test Layout</t>
+  </si>
+  <si>
+    <t>Test Default Value</t>
+  </si>
+  <si>
+    <t>Current value of defect's field</t>
+  </si>
+  <si>
+    <t>Current value of defect's field
+Today + 1 if empty</t>
+  </si>
+  <si>
+    <t>1. Dellete due field
+2. Save
+3. Open again
+4. Check</t>
+  </si>
+  <si>
+    <t>Test Date Constrain</t>
+  </si>
+  <si>
+    <t>Save attach file with permission on Defect view or edit screen</t>
+  </si>
+  <si>
+    <t>Save wrong date constrain in  Defect view or edit screen click save</t>
+  </si>
+  <si>
+    <t>Save with valid date constrain in  Defect view or edit screen click save</t>
+  </si>
+  <si>
+    <t>Leave empty required field then click save</t>
+  </si>
+  <si>
+    <t>Corrective Action leave empty after changed status 3,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Check layout </t>
+  </si>
+  <si>
+    <t>1. Check Title field focus</t>
+  </si>
+  <si>
+    <t>Focus on title file</t>
+  </si>
+  <si>
+    <t>GUI Layout</t>
+  </si>
+  <si>
+    <t>Function Corrective Action</t>
+  </si>
+  <si>
+    <t>Test Status Error</t>
+  </si>
+  <si>
+    <t>Test Status Pending</t>
+  </si>
+  <si>
+    <t>1. Input Status = Error
+2. Corrective Action = empty
+3.Save</t>
+  </si>
+  <si>
+    <t>1. Input Status = Pending
+2. Defect owner = anyone
+3. Corrective Action = empty
+4.Save</t>
+  </si>
+  <si>
+    <t>Please fill to corrective action</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1600,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1830,6 +1962,27 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1859,12 +2012,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1899,24 +2046,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2309,14 +2438,14 @@
   <sheetData>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="150"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="5"/>
@@ -2327,11 +2456,11 @@
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2341,36 +2470,36 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="140" t="str">
+      <c r="C6" s="147" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
@@ -2526,39 +2655,39 @@
       <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147" t="str">
+      <c r="C3" s="153"/>
+      <c r="D3" s="154" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147" t="str">
+      <c r="C4" s="153"/>
+      <c r="D4" s="154" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
     </row>
     <row r="5" spans="2:6" s="42" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145" t="s">
+      <c r="C5" s="151"/>
+      <c r="D5" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="43"/>
@@ -2739,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="12.75"/>
@@ -2775,13 +2904,13 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="158" t="s">
         <v>79</v>
       </c>
       <c r="D2" s="124" t="s">
@@ -2793,9 +2922,9 @@
       <c r="F2" s="124"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="154"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
       <c r="D3" s="124" t="s">
         <v>99</v>
       </c>
@@ -2805,9 +2934,9 @@
       <c r="F3" s="124"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="154"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
       <c r="D4" s="124" t="s">
         <v>100</v>
       </c>
@@ -2817,9 +2946,9 @@
       <c r="F4" s="124"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
       <c r="D5" s="124" t="s">
         <v>80</v>
       </c>
@@ -2829,9 +2958,9 @@
       <c r="F5" s="124"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="154"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
       <c r="D6" s="124" t="s">
         <v>82</v>
       </c>
@@ -2841,9 +2970,9 @@
       <c r="F6" s="124"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="155"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
       <c r="D7" s="124" t="s">
         <v>83</v>
       </c>
@@ -2853,9 +2982,9 @@
       <c r="F7" s="124"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="154"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="153" t="s">
+      <c r="A8" s="159"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="158" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="124" t="s">
@@ -2867,9 +2996,9 @@
       <c r="F8" s="124"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="154"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
       <c r="D9" s="124" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3010,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="154"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="160"/>
       <c r="D10" s="124" t="s">
         <v>88</v>
       </c>
@@ -2893,9 +3022,9 @@
       <c r="F10" s="124"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="153" t="s">
+      <c r="A11" s="159"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="158" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="124" t="s">
@@ -2907,9 +3036,9 @@
       <c r="F11" s="124"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="124" t="s">
         <v>91</v>
       </c>
@@ -2919,9 +3048,9 @@
       <c r="F12" s="124"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="124" t="s">
         <v>92</v>
       </c>
@@ -2933,9 +3062,9 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="154"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="155"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="124" t="s">
         <v>94</v>
       </c>
@@ -2945,7 +3074,7 @@
       <c r="F14" s="124"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="155"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="127" t="s">
         <v>95</v>
       </c>
@@ -2959,13 +3088,13 @@
       <c r="F15" s="124"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="148" t="s">
+      <c r="A16" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="155" t="s">
         <v>79</v>
       </c>
       <c r="D16" s="129" t="s">
@@ -2976,81 +3105,78 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="149"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="151"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="156"/>
       <c r="D17" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="128" t="s">
-        <v>97</v>
+      <c r="E17" s="125" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="149"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="151"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="156"/>
       <c r="D18" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="126" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.5">
-      <c r="A19" s="149"/>
-      <c r="B19" s="149"/>
+        <v>159</v>
+      </c>
+      <c r="E18" s="125" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="157"/>
+      <c r="B19" s="157"/>
       <c r="C19" s="128" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="E19" s="125" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="149"/>
-      <c r="B20" s="149" t="s">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A20" s="157"/>
+      <c r="B20" s="157" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="152" t="s">
-        <v>84</v>
+      <c r="C20" s="144" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="129" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E20" s="125" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="149"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="152"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157" t="s">
+        <v>84</v>
+      </c>
       <c r="D21" s="129" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="E21" s="125" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="149"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="129" t="s">
-        <v>114</v>
+      <c r="A22" s="157"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="126" t="s">
+        <v>163</v>
       </c>
       <c r="E22" s="125" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="149"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="152"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F15"/>
@@ -3060,11 +3186,11 @@
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
@@ -3114,15 +3240,15 @@
       <c r="A2" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
       <c r="I2" s="68"/>
       <c r="J2" s="69" t="s">
         <v>101</v>
@@ -3132,15 +3258,15 @@
       <c r="A3" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
       <c r="I3" s="68"/>
       <c r="J3" s="69" t="s">
         <v>102</v>
@@ -3150,13 +3276,13 @@
       <c r="A4" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69" t="s">
         <v>103</v>
@@ -3178,11 +3304,11 @@
       <c r="E5" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
       <c r="I5" s="71"/>
       <c r="J5" s="69" t="s">
         <v>38</v>
@@ -3209,12 +3335,12 @@
         <f>COUNTIF(F$9:F$996,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="158">
+      <c r="F6" s="163">
         <f>COUNTA(A9:A996)</f>
         <v>6</v>
       </c>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
       <c r="I6" s="71"/>
       <c r="J6" s="69" t="s">
         <v>104</v>
@@ -3425,11 +3551,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3462,15 +3588,15 @@
       <c r="A2" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
       <c r="I2" s="68"/>
       <c r="J2" s="69" t="s">
         <v>101</v>
@@ -3480,15 +3606,15 @@
       <c r="A3" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="156" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
+      <c r="B3" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
       <c r="I3" s="68"/>
       <c r="J3" s="69" t="s">
         <v>102</v>
@@ -3498,13 +3624,13 @@
       <c r="A4" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69" t="s">
         <v>103</v>
@@ -3526,11 +3652,11 @@
       <c r="E5" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
       <c r="I5" s="71"/>
       <c r="J5" s="69" t="s">
         <v>38</v>
@@ -3538,31 +3664,31 @@
     </row>
     <row r="6" spans="1:11" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="90">
-        <f>COUNTIF(F9:F995,"Passed")</f>
-        <v>24</v>
+        <f>COUNTIF(F9:F961,"Passed")</f>
+        <v>36</v>
       </c>
       <c r="B6" s="135">
-        <f>COUNTIF(F9:F995,"Failed")</f>
-        <v>1</v>
+        <f>COUNTIF(F9:F961,"Failed")</f>
+        <v>2</v>
       </c>
       <c r="C6" s="135">
         <f>F6-E6-D6-B6-A6</f>
         <v>0</v>
       </c>
       <c r="D6" s="135">
-        <f>COUNTIF(F$9:F$995,"Blocked")</f>
+        <f>COUNTIF(F$9:F$961,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="E6" s="136">
-        <f>COUNTIF(F$9:F$995,"Skipped")</f>
+        <f>COUNTIF(F$9:F$961,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="158">
-        <f>COUNTA(A9:A995)</f>
-        <v>25</v>
-      </c>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
+      <c r="F6" s="163">
+        <f>COUNTA(A9:A961)</f>
+        <v>38</v>
+      </c>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
       <c r="I6" s="71"/>
       <c r="J6" s="69" t="s">
         <v>104</v>
@@ -3606,7 +3732,7 @@
     <row r="9" spans="1:11" s="69" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="76"/>
       <c r="B9" s="76" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="77"/>
@@ -3640,749 +3766,829 @@
       <c r="H10" s="91"/>
       <c r="I10" s="84"/>
     </row>
-    <row r="11" spans="1:11" ht="25.5">
-      <c r="A11" s="162" t="str">
+    <row r="11" spans="1:11" s="85" customFormat="1" ht="120.95" customHeight="1">
+      <c r="A11" s="138" t="str">
         <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Module2-1]</v>
       </c>
-      <c r="B11" s="162" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="162" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="163"/>
-      <c r="F11" s="162" t="s">
+      <c r="B11" s="138" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="139"/>
+      <c r="F11" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="162"/>
-      <c r="H11" s="164"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="140"/>
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="A12" s="138" t="str">
+        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module2-2]</v>
+      </c>
+      <c r="B12" s="138" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="139" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="139"/>
+      <c r="F12" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="138"/>
+      <c r="H12" s="140"/>
       <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="165" t="str">
-        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-2]</v>
-      </c>
-      <c r="B13" s="165" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="165" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="165" t="s">
+      <c r="A13" s="76"/>
+      <c r="B13" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="84"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="141" t="str">
+        <f t="shared" ref="A14:A30" si="0">IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[Module2-3]</v>
+      </c>
+      <c r="B14" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="141" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="142"/>
+      <c r="F14" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="165"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="84"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="80" t="str">
-        <f>IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-3]</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="89"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="84"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="80" t="str">
-        <f>IF(OR(B15&lt;&gt;"",D15&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[Module2-4]</v>
       </c>
-      <c r="B15" s="80" t="s">
-        <v>55</v>
+      <c r="B15" s="141" t="s">
+        <v>154</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="166" t="s">
-        <v>142</v>
+        <v>113</v>
+      </c>
+      <c r="D15" s="142" t="s">
+        <v>155</v>
       </c>
       <c r="E15" s="80"/>
-      <c r="F15" s="165" t="s">
+      <c r="F15" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="80" t="str">
-        <f>IF(OR(B16&lt;&gt;"",D16&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[Module2-5]</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>54</v>
+      <c r="B16" s="141" t="s">
+        <v>154</v>
       </c>
       <c r="C16" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-6]</v>
+      </c>
+      <c r="B17" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="80"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="84"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-7]</v>
+      </c>
+      <c r="B18" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="80"/>
+      <c r="F18" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-8]</v>
+      </c>
+      <c r="B19" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="80"/>
+      <c r="F19" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="80"/>
+      <c r="H19" s="91"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-9]</v>
+      </c>
+      <c r="B20" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="80"/>
+      <c r="F20" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-10]</v>
+      </c>
+      <c r="B21" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="80"/>
+      <c r="F21" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="80"/>
+      <c r="H21" s="91"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-11]</v>
+      </c>
+      <c r="B22" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="165" t="s">
+      <c r="D22" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="80"/>
+      <c r="F22" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="84"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="80" t="str">
-        <f>IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-6]</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="80" t="s">
+      <c r="G22" s="87"/>
+      <c r="H22" s="88"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-12]</v>
+      </c>
+      <c r="B23" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="80"/>
+      <c r="F23" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="80"/>
+      <c r="H23" s="91"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-13]</v>
+      </c>
+      <c r="B24" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="80"/>
+      <c r="F24" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="87"/>
+      <c r="H24" s="88"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-14]</v>
+      </c>
+      <c r="B25" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="165" t="s">
+      <c r="D25" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="80" t="str">
-        <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-7]</v>
-      </c>
-      <c r="B18" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="165" t="s">
+      <c r="G25" s="80"/>
+      <c r="H25" s="91"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-15]</v>
+      </c>
+      <c r="B26" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="80"/>
+      <c r="F26" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="91"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="80" t="str">
-        <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-8]</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="165" t="s">
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-16]</v>
+      </c>
+      <c r="B27" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="80"/>
+      <c r="F27" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="88"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="80" t="str">
-        <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-9]</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="165" t="s">
+      <c r="G27" s="80"/>
+      <c r="H27" s="91"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-17]</v>
+      </c>
+      <c r="B28" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="80"/>
+      <c r="F28" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="91"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="80" t="str">
-        <f>IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-10]</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="80" t="s">
+      <c r="G28" s="87"/>
+      <c r="H28" s="88"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-18]</v>
+      </c>
+      <c r="B29" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="165" t="s">
+      <c r="D29" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="80"/>
+      <c r="F29" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="87"/>
-      <c r="H21" s="88"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="80" t="str">
-        <f>IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-11]</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="80" t="s">
+      <c r="G29" s="80"/>
+      <c r="H29" s="91"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-19]</v>
+      </c>
+      <c r="B30" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="91"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="80" t="str">
-        <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-12]</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="80" t="str">
-        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-13]</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="80"/>
-      <c r="H24" s="91"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="80" t="str">
-        <f>IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-14]</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="80" t="str">
-        <f>IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-15]</v>
-      </c>
-      <c r="B26" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="80"/>
-      <c r="H26" s="91"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="80" t="str">
-        <f>IF(OR(B27&lt;&gt;"",D27&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-16]</v>
-      </c>
-      <c r="B27" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="80"/>
-      <c r="F27" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="87"/>
-      <c r="H27" s="88"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="80" t="str">
-        <f>IF(OR(B28&lt;&gt;"",D28&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-17]</v>
-      </c>
-      <c r="B28" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="91"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="80" t="str">
-        <f>IF(OR(B29&lt;&gt;"",D29&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-18]</v>
-      </c>
-      <c r="B29" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="88"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="80" t="str">
-        <f t="shared" ref="A15:A57" si="0">IF(OR(B30&lt;&gt;"",D30&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-19]</v>
-      </c>
-      <c r="B30" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="166" t="s">
-        <v>142</v>
+      <c r="D30" s="142" t="s">
+        <v>155</v>
       </c>
       <c r="E30" s="80"/>
-      <c r="F30" s="165" t="s">
+      <c r="F30" s="141" t="s">
         <v>101</v>
       </c>
       <c r="G30" s="87"/>
       <c r="H30" s="88"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="80" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A31:A37" si="1">IF(OR(B31&lt;&gt;"",D31&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[Module2-20]</v>
       </c>
-      <c r="B31" s="80" t="s">
-        <v>54</v>
+      <c r="B31" s="141" t="s">
+        <v>154</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="166" t="s">
-        <v>142</v>
+        <v>130</v>
+      </c>
+      <c r="D31" s="142" t="s">
+        <v>155</v>
       </c>
       <c r="E31" s="80"/>
-      <c r="F31" s="165" t="s">
+      <c r="F31" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="80"/>
-      <c r="H31" s="91"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="80" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Module2-21]</v>
       </c>
-      <c r="B32" s="80" t="s">
-        <v>55</v>
+      <c r="B32" s="141" t="s">
+        <v>154</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="166" t="s">
-        <v>142</v>
+        <v>131</v>
+      </c>
+      <c r="D32" s="142" t="s">
+        <v>155</v>
       </c>
       <c r="E32" s="80"/>
-      <c r="F32" s="165" t="s">
+      <c r="F32" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="88"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="91"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="80" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Module2-22]</v>
       </c>
-      <c r="B33" s="80" t="s">
-        <v>54</v>
+      <c r="B33" s="141" t="s">
+        <v>154</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="166" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="D33" s="142" t="s">
+        <v>155</v>
       </c>
       <c r="E33" s="80"/>
-      <c r="F33" s="165" t="s">
+      <c r="F33" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="80"/>
-      <c r="H33" s="91"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="80" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[Module2-23]</v>
       </c>
-      <c r="B34" s="80" t="s">
-        <v>55</v>
+      <c r="B34" s="141" t="s">
+        <v>154</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="166" t="s">
-        <v>143</v>
+        <v>118</v>
+      </c>
+      <c r="D34" s="142" t="s">
+        <v>155</v>
       </c>
       <c r="E34" s="80"/>
-      <c r="F34" s="165" t="s">
+      <c r="F34" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="80"/>
+      <c r="H34" s="91"/>
+    </row>
+    <row r="35" spans="1:8" ht="25.5">
+      <c r="A35" s="80" t="str">
+        <f t="shared" ref="A35" si="2">IF(OR(B35&lt;&gt;"",D35&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[Module2-24]</v>
+      </c>
+      <c r="B35" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="142" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="80"/>
+      <c r="F35" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88"/>
+    </row>
+    <row r="36" spans="1:8" ht="51">
+      <c r="A36" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>[Module2-25]</v>
+      </c>
+      <c r="B36" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="142" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="80"/>
+      <c r="F36" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="88"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>[Module2-24]</v>
-      </c>
-      <c r="B35" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="166" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="80"/>
-      <c r="F35" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="80"/>
-      <c r="H35" s="91"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="88"/>
       <c r="G36" s="87"/>
       <c r="H36" s="88"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="A37" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>[Module2-26]</v>
+      </c>
+      <c r="B37" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="142" t="s">
+        <v>155</v>
+      </c>
       <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
+      <c r="F37" s="141" t="s">
+        <v>101</v>
+      </c>
       <c r="G37" s="80"/>
       <c r="H37" s="91"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="88"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="78"/>
+    </row>
+    <row r="39" spans="1:8" ht="51">
+      <c r="A39" s="80" t="str">
+        <f>IF(OR(B39&lt;&gt;"",D39&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+        <v>[Module2-27]</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>136</v>
+      </c>
       <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
+      <c r="F39" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="G39" s="80"/>
       <c r="H39" s="91"/>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
+    <row r="40" spans="1:8" ht="51">
+      <c r="A40" s="80" t="str">
+        <f t="shared" ref="A40:A47" si="3">IF(OR(B40&lt;&gt;"",D40&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+        <v>[Module2-28]</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="80" t="s">
+        <v>147</v>
+      </c>
       <c r="E40" s="80"/>
-      <c r="F40" s="88"/>
+      <c r="F40" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="G40" s="87"/>
       <c r="H40" s="88"/>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
+    <row r="41" spans="1:8" ht="51">
+      <c r="A41" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>[Module2-29]</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>151</v>
+      </c>
       <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
+      <c r="F41" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="G41" s="80"/>
       <c r="H41" s="91"/>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
+    <row r="42" spans="1:8" ht="63.75">
+      <c r="A42" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>[Module2-30]</v>
+      </c>
+      <c r="B42" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>151</v>
+      </c>
       <c r="E42" s="80"/>
-      <c r="F42" s="88"/>
+      <c r="F42" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="G42" s="87"/>
       <c r="H42" s="88"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
+    <row r="43" spans="1:8" ht="63.75">
+      <c r="A43" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>[Module2-31]</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
+      <c r="F43" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="G43" s="80"/>
       <c r="H43" s="91"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
+    <row r="44" spans="1:8" ht="51">
+      <c r="A44" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>[Module2-32]</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="80" t="s">
+        <v>149</v>
+      </c>
       <c r="E44" s="80"/>
-      <c r="F44" s="88"/>
+      <c r="F44" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="G44" s="87"/>
       <c r="H44" s="88"/>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="80"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
+    <row r="45" spans="1:8" ht="63.75">
+      <c r="A45" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>[Module2-33]</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="80" t="s">
+        <v>148</v>
+      </c>
       <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
+      <c r="F45" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="G45" s="80"/>
       <c r="H45" s="91"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
+    <row r="46" spans="1:8" ht="51">
+      <c r="A46" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>[Module2-34]</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="80" t="s">
+        <v>147</v>
+      </c>
       <c r="E46" s="80"/>
-      <c r="F46" s="88"/>
+      <c r="F46" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="G46" s="87"/>
       <c r="H46" s="88"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
+    <row r="47" spans="1:8" ht="51">
+      <c r="A47" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v>[Module2-35]</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>146</v>
+      </c>
       <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
+      <c r="F47" s="80" t="s">
+        <v>102</v>
+      </c>
       <c r="G47" s="80"/>
-      <c r="H47" s="91"/>
+      <c r="H47" s="91" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="88"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="80"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="78"/>
+    </row>
+    <row r="49" spans="1:8" ht="38.25">
+      <c r="A49" s="80" t="str">
+        <f>IF(OR(B49&lt;&gt;"",D49&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module2-36]</v>
+      </c>
+      <c r="B49" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>109</v>
+      </c>
       <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
+      <c r="F49" s="80" t="s">
+        <v>101</v>
+      </c>
       <c r="G49" s="80"/>
       <c r="H49" s="91"/>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="80"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
+    <row r="50" spans="1:8" ht="51">
+      <c r="A50" s="80" t="str">
+        <f>IF(OR(B50&lt;&gt;"",D50&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module2-37]</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="80" t="s">
+        <v>173</v>
+      </c>
       <c r="E50" s="80"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="88"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="91"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="80"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="88"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="80"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="91"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="80"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="88"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="80"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="91"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="80"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="88"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="80"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="91"/>
+      <c r="F50" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="80"/>
+      <c r="H50" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4394,7 +4600,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F143">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F109">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4405,6 +4611,9 @@
     <oddHeader>&amp;LFacilitate_Test Case\Company&amp;Rv1.0</oddHeader>
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"Tahoma,Regular"&amp;10Internal use&amp;R&amp;"tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="16383" man="1"/>
+  </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4414,7 +4623,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4429,15 +4638,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="92"/>
@@ -4453,14 +4662,14 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="159" t="s">
+      <c r="D3" s="154"/>
+      <c r="E3" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="159"/>
+      <c r="F3" s="164"/>
       <c r="G3" s="95"/>
       <c r="H3" s="96"/>
     </row>
@@ -4468,14 +4677,14 @@
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="159" t="s">
+      <c r="D4" s="154"/>
+      <c r="E4" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="159"/>
+      <c r="F4" s="164"/>
       <c r="G4" s="95"/>
       <c r="H4" s="96"/>
     </row>
@@ -4483,15 +4692,15 @@
       <c r="B5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="147" t="str">
+      <c r="C5" s="154" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="159" t="s">
+      <c r="D5" s="154"/>
+      <c r="E5" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="159"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="95"/>
       <c r="H5" s="98" t="s">
         <v>62</v>
@@ -4502,14 +4711,14 @@
       <c r="B6" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="92"/>
@@ -4602,11 +4811,11 @@
       </c>
       <c r="D11" s="111">
         <f>Module2!A6</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E11" s="111">
         <f>Module2!B6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="111">
         <f>Module2!C6</f>
@@ -4622,7 +4831,7 @@
       </c>
       <c r="I11" s="111">
         <f>Module2!F6</f>
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4644,11 +4853,11 @@
       </c>
       <c r="D13" s="116">
         <f t="shared" ref="D13:I13" si="0">SUM(D8:D12)</f>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E13" s="116">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="116">
         <f t="shared" si="0"/>
@@ -4664,7 +4873,7 @@
       </c>
       <c r="I13" s="117">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4686,7 +4895,7 @@
       <c r="D15" s="101"/>
       <c r="E15" s="122">
         <f>(D13+E13)*100/(I13-H13-G13)</f>
-        <v>83.870967741935488</v>
+        <v>88.63636363636364</v>
       </c>
       <c r="F15" s="101" t="s">
         <v>69</v>
@@ -4703,7 +4912,7 @@
       <c r="D16" s="101"/>
       <c r="E16" s="122">
         <f>D13*100/(D13+E13)</f>
-        <v>96.15384615384616</v>
+        <v>94.871794871794876</v>
       </c>
       <c r="F16" s="101" t="s">
         <v>69</v>
@@ -4736,15 +4945,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4759,7 +4959,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1696f36ed93db054fc8f4d62be39c1ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bffc5b2d08ab4fb7daf98c77989d8342" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5133,15 +5333,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A9143EA-EABB-44A8-85B6-CBB9E015E4E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
@@ -5154,11 +5355,12 @@
     <ds:schemaRef ds:uri="cd6d2771-e08b-42a3-90f8-eca630337659"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{898618FE-843B-48E6-B1F2-2AB76D41F459}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5175,4 +5377,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/thanh.xlsx
+++ b/thanh.xlsx
@@ -21,12 +21,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module1!$A$8:$H$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module2!$A$8:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module2!$A$8:$H$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestDesign!$A$1:$F$15</definedName>
     <definedName name="_Toc301930468" localSheetId="2">TestDesign!#REF!</definedName>
     <definedName name="_Toc301930478" localSheetId="2">TestDesign!#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Module2!$A$1:$K$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Module2!$A$1:$K$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">TestDesign!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="178">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -462,59 +462,6 @@
     <t>&lt;Test case 6&gt;</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;Brief description of this case: what is tested?&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ex: Test viewing "Staff Information" form.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Describe steps to perform this case&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ex:
-1. Login the system with Manager role.
-2. Click "Staff" tab in the left menu.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Describe results which meet customer's requirement&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ex:
-The "Staff information" view form is displayed with the folowing informations:
-- Staff name
-- Home address
-- Company name
-- …</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;List all test cases or condition that must be done before performing this case&gt;</t>
-  </si>
-  <si>
     <t>TEST REPORT</t>
   </si>
   <si>
@@ -893,6 +840,37 @@
   </si>
   <si>
     <t>Please fill to corrective action</t>
+  </si>
+  <si>
+    <t>Function Attach File</t>
+  </si>
+  <si>
+    <t>Test Attach File</t>
+  </si>
+  <si>
+    <t>1. Click Attach file
+2. Click browse
+3. Choose a file
+4. Click Actach
+5. Click Done
+6. Click Save
+7. Open Again to check if attached</t>
+  </si>
+  <si>
+    <t>File attached</t>
+  </si>
+  <si>
+    <t>Function Required Field</t>
+  </si>
+  <si>
+    <t>Test Required Field</t>
+  </si>
+  <si>
+    <t>1. Delete or select null required file
+2. Save</t>
+  </si>
+  <si>
+    <t>ERR_REQUIRED_*</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1578,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1980,9 +1958,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2011,15 +1986,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2046,6 +2012,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2438,14 +2413,14 @@
   <sheetData>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="150"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="5"/>
@@ -2456,11 +2431,11 @@
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2470,36 +2445,36 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="147" t="str">
+      <c r="C6" s="146" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="146"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
@@ -2554,7 +2529,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="24" customFormat="1" ht="21.75" customHeight="1">
@@ -2655,39 +2630,39 @@
       <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154" t="str">
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154" t="str">
+      <c r="C4" s="152"/>
+      <c r="D4" s="153" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
     </row>
     <row r="5" spans="2:6" s="42" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152" t="s">
+      <c r="C5" s="150"/>
+      <c r="D5" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="43"/>
@@ -2885,312 +2860,311 @@
   <sheetData>
     <row r="1" spans="1:6" s="123" customFormat="1" ht="25.5">
       <c r="A1" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="73" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>76</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="154" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="124"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="155"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="124"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="155"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="124"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="155"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="F5" s="124"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="155"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="E6" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="124"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="155"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="124"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="124"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="124" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="124"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="124" t="s">
+      <c r="E7" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="124"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="155"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="D8" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="124"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="124" t="s">
+      <c r="E8" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="124"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="155"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="124"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="124" t="s">
+      <c r="E9" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="124"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="159"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="158" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="155"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="E10" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="124"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="124"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="159"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="124" t="s">
+      <c r="D11" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="124" t="s">
+      <c r="E11" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="124"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="155"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="124" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="159"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="124" t="s">
+      <c r="E12" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="124"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="155"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="124"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="159"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="158" t="s">
+      <c r="E13" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="124" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="155"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="124"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="159"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="124" t="s">
+      <c r="E14" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="124"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="156"/>
+      <c r="B15" s="127" t="s">
         <v>91</v>
-      </c>
-      <c r="E12" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="124"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="159"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="124" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="124" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="159"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="124"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="160"/>
-      <c r="B15" s="127" t="s">
-        <v>95</v>
       </c>
       <c r="C15" s="127"/>
       <c r="D15" s="124" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E15" s="125" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F15" s="124"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="164" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="164" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="164" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="163"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A18" s="163"/>
+      <c r="B18" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="155" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="155" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="129" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="128" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="157"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="129" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="125" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="157"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="126" t="s">
+      <c r="C18" s="163" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A20" s="163"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="163"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="163"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="125" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="157"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="129" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="125" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A20" s="157"/>
-      <c r="B20" s="157" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="144" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="129" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="125" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="157"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="129" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="125" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="157"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="126" t="s">
-        <v>163</v>
-      </c>
       <c r="E22" s="125" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F15"/>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B2:B14"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
@@ -3207,7 +3181,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3240,75 +3214,75 @@
       <c r="A2" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
       <c r="I2" s="68"/>
       <c r="J2" s="69" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
       <c r="I3" s="68"/>
       <c r="J3" s="69" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="132" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C5" s="133" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E5" s="134" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="71"/>
       <c r="J5" s="69" t="s">
         <v>38</v>
@@ -3335,15 +3309,15 @@
         <f>COUNTIF(F$9:F$996,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="163">
+      <c r="F6" s="159">
         <f>COUNTA(A9:A996)</f>
         <v>6</v>
       </c>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
       <c r="I6" s="71"/>
       <c r="J6" s="69" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
@@ -3412,7 +3386,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="137" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G10" s="80"/>
       <c r="H10" s="83"/>
@@ -3551,11 +3525,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <pane ySplit="8" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3588,75 +3562,75 @@
       <c r="A2" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
       <c r="I2" s="68"/>
       <c r="J2" s="69" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="69" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="161" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
+      <c r="B3" s="157" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
       <c r="I3" s="68"/>
       <c r="J3" s="69" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="69" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="69" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="132" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C5" s="133" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E5" s="134" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="71"/>
       <c r="J5" s="69" t="s">
         <v>38</v>
@@ -3664,34 +3638,34 @@
     </row>
     <row r="6" spans="1:11" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="90">
-        <f>COUNTIF(F9:F961,"Passed")</f>
+        <f>COUNTIF(F9:F955,"Passed")</f>
         <v>36</v>
       </c>
       <c r="B6" s="135">
-        <f>COUNTIF(F9:F961,"Failed")</f>
-        <v>2</v>
+        <f>COUNTIF(F9:F955,"Failed")</f>
+        <v>3</v>
       </c>
       <c r="C6" s="135">
         <f>F6-E6-D6-B6-A6</f>
         <v>0</v>
       </c>
       <c r="D6" s="135">
-        <f>COUNTIF(F$9:F$961,"Blocked")</f>
+        <f>COUNTIF(F$9:F$955,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="E6" s="136">
-        <f>COUNTIF(F$9:F$961,"Skipped")</f>
+        <f>COUNTIF(F$9:F$955,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="163">
-        <f>COUNTA(A9:A961)</f>
-        <v>38</v>
-      </c>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
+      <c r="F6" s="159">
+        <f>COUNTA(A9:A955)</f>
+        <v>39</v>
+      </c>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
       <c r="I6" s="71"/>
       <c r="J6" s="69" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="69" customFormat="1" ht="15" customHeight="1">
@@ -3732,7 +3706,7 @@
     <row r="9" spans="1:11" s="69" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="76"/>
       <c r="B9" s="76" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="77"/>
@@ -3743,852 +3717,894 @@
       <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:11" s="85" customFormat="1" ht="120.95" customHeight="1">
-      <c r="A10" s="80" t="str">
-        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module2-]</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="137" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="91"/>
+      <c r="A10" s="138" t="str">
+        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <v>[Module2-1]</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="H10" s="140"/>
       <c r="I10" s="84"/>
     </row>
-    <row r="11" spans="1:11" s="85" customFormat="1" ht="120.95" customHeight="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="138" t="str">
-        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module2-1]</v>
+        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <v>[Module2-2]</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D11" s="139" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="E11" s="139"/>
       <c r="F11" s="138" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G11" s="138"/>
       <c r="H11" s="140"/>
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="138" t="str">
-        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module2-2]</v>
-      </c>
-      <c r="B12" s="138" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="138" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="139" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="139"/>
-      <c r="F12" s="138" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="138"/>
-      <c r="H12" s="140"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
       <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="A13" s="141" t="str">
+        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module2-3]</v>
+      </c>
+      <c r="B13" s="141" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="142"/>
+      <c r="F13" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="141"/>
+      <c r="H13" s="143"/>
       <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="141" t="str">
-        <f t="shared" ref="A14:A30" si="0">IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-3]</v>
+        <f t="shared" ref="A14:A36" si="0">IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Module2-4]</v>
       </c>
       <c r="B14" s="141" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="141" t="s">
-        <v>112</v>
+        <v>150</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>109</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="142"/>
+        <v>151</v>
+      </c>
+      <c r="E14" s="80"/>
       <c r="F14" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="141"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="84"/>
+        <v>97</v>
+      </c>
+      <c r="G14" s="80"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="89"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="80" t="str">
+      <c r="A15" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-4]</v>
+        <v>[Module2-5]</v>
       </c>
       <c r="B15" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="89"/>
+        <v>97</v>
+      </c>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="80" t="str">
+      <c r="A16" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-5]</v>
+        <v>[Module2-6]</v>
       </c>
       <c r="B16" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D16" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E16" s="80"/>
       <c r="F16" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="84"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-6]</v>
+        <v>[Module2-7]</v>
       </c>
       <c r="B17" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E17" s="80"/>
       <c r="F17" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="84"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-7]</v>
+        <v>[Module2-8]</v>
       </c>
       <c r="B18" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D18" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E18" s="80"/>
       <c r="F18" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="H18" s="91"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-8]</v>
+        <v>[Module2-9]</v>
       </c>
       <c r="B19" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E19" s="80"/>
       <c r="F19" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="91"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-9]</v>
+        <v>[Module2-10]</v>
       </c>
       <c r="B20" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D20" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E20" s="80"/>
       <c r="F20" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="88"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G20" s="80"/>
+      <c r="H20" s="91"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-10]</v>
+        <v>[Module2-11]</v>
       </c>
       <c r="B21" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>117</v>
       </c>
       <c r="D21" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E21" s="80"/>
       <c r="F21" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="91"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-11]</v>
+        <v>[Module2-12]</v>
       </c>
       <c r="B22" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D22" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E22" s="80"/>
       <c r="F22" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="88"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G22" s="80"/>
+      <c r="H22" s="91"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-12]</v>
+        <v>[Module2-13]</v>
       </c>
       <c r="B23" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D23" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E23" s="80"/>
       <c r="F23" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="91"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G23" s="87"/>
+      <c r="H23" s="88"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-13]</v>
+        <v>[Module2-14]</v>
       </c>
       <c r="B24" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D24" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E24" s="80"/>
       <c r="F24" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="88"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G24" s="80"/>
+      <c r="H24" s="91"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-14]</v>
+        <v>[Module2-15]</v>
       </c>
       <c r="B25" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="80"/>
-      <c r="H25" s="91"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-15]</v>
+        <v>[Module2-16]</v>
       </c>
       <c r="B26" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D26" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G26" s="80"/>
+      <c r="H26" s="91"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-16]</v>
+        <v>[Module2-17]</v>
       </c>
       <c r="B27" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D27" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E27" s="80"/>
       <c r="F27" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="80"/>
-      <c r="H27" s="91"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-17]</v>
+        <v>[Module2-18]</v>
       </c>
       <c r="B28" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D28" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E28" s="80"/>
       <c r="F28" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="88"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G28" s="80"/>
+      <c r="H28" s="91"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-18]</v>
+        <v>[Module2-19]</v>
       </c>
       <c r="B29" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C29" s="80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D29" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E29" s="80"/>
       <c r="F29" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="80"/>
-      <c r="H29" s="91"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="80" t="str">
+        <v>97</v>
+      </c>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="141" t="str">
         <f t="shared" si="0"/>
-        <v>[Module2-19]</v>
+        <v>[Module2-20]</v>
       </c>
       <c r="B30" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D30" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E30" s="80"/>
       <c r="F30" s="141" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G30" s="87"/>
       <c r="H30" s="88"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="80" t="str">
-        <f t="shared" ref="A31:A37" si="1">IF(OR(B31&lt;&gt;"",D31&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-20]</v>
+    <row r="31" spans="1:8">
+      <c r="A31" s="141" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-21]</v>
       </c>
       <c r="B31" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D31" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E31" s="80"/>
       <c r="F31" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="87"/>
-      <c r="H31" s="88"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>[Module2-21]</v>
+        <v>97</v>
+      </c>
+      <c r="G31" s="80"/>
+      <c r="H31" s="91"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="141" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-22]</v>
       </c>
       <c r="B32" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D32" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E32" s="80"/>
       <c r="F32" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="80"/>
-      <c r="H32" s="91"/>
+        <v>97</v>
+      </c>
+      <c r="G32" s="87"/>
+      <c r="H32" s="88"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>[Module2-22]</v>
+      <c r="A33" s="141" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-23]</v>
       </c>
       <c r="B33" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D33" s="142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E33" s="80"/>
       <c r="F33" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="87"/>
-      <c r="H33" s="88"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>[Module2-23]</v>
+        <v>97</v>
+      </c>
+      <c r="G33" s="80"/>
+      <c r="H33" s="91"/>
+    </row>
+    <row r="34" spans="1:8" ht="25.5">
+      <c r="A34" s="141" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-24]</v>
       </c>
       <c r="B34" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D34" s="142" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E34" s="80"/>
       <c r="F34" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="80"/>
-      <c r="H34" s="91"/>
-    </row>
-    <row r="35" spans="1:8" ht="25.5">
-      <c r="A35" s="80" t="str">
-        <f t="shared" ref="A35" si="2">IF(OR(B35&lt;&gt;"",D35&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module2-24]</v>
+        <v>97</v>
+      </c>
+      <c r="G34" s="87"/>
+      <c r="H34" s="88"/>
+    </row>
+    <row r="35" spans="1:8" ht="51">
+      <c r="A35" s="141" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-25]</v>
       </c>
       <c r="B35" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D35" s="142" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E35" s="80"/>
       <c r="F35" s="141" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G35" s="87"/>
       <c r="H35" s="88"/>
     </row>
-    <row r="36" spans="1:8" ht="51">
-      <c r="A36" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>[Module2-25]</v>
+    <row r="36" spans="1:8">
+      <c r="A36" s="141" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module2-26]</v>
       </c>
       <c r="B36" s="141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D36" s="142" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E36" s="80"/>
       <c r="F36" s="141" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="88"/>
+        <v>97</v>
+      </c>
+      <c r="G36" s="80"/>
+      <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="80" t="str">
-        <f t="shared" si="1"/>
-        <v>[Module2-26]</v>
-      </c>
-      <c r="B37" s="141" t="s">
+      <c r="A37" s="76"/>
+      <c r="B37" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="78"/>
+    </row>
+    <row r="38" spans="1:8" ht="51">
+      <c r="A38" s="80" t="str">
+        <f>IF(OR(B38&lt;&gt;"",D38&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[Module2-27]</v>
+      </c>
+      <c r="B38" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="142" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="80"/>
-      <c r="F37" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="80"/>
-      <c r="H37" s="91"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="78"/>
+      <c r="C38" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="80"/>
+      <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:8" ht="51">
       <c r="A39" s="80" t="str">
-        <f>IF(OR(B39&lt;&gt;"",D39&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
-        <v>[Module2-27]</v>
+        <f t="shared" ref="A39:A46" si="1">IF(OR(B39&lt;&gt;"",D39&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[Module2-28]</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D39" s="80" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E39" s="80"/>
       <c r="F39" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="80"/>
-      <c r="H39" s="91"/>
+        <v>97</v>
+      </c>
+      <c r="G39" s="87"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" spans="1:8" ht="51">
       <c r="A40" s="80" t="str">
-        <f t="shared" ref="A40:A47" si="3">IF(OR(B40&lt;&gt;"",D40&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
-        <v>[Module2-28]</v>
+        <f t="shared" si="1"/>
+        <v>[Module2-29]</v>
       </c>
       <c r="B40" s="80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C40" s="80" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D40" s="80" t="s">
         <v>147</v>
       </c>
       <c r="E40" s="80"/>
       <c r="F40" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="87"/>
-      <c r="H40" s="88"/>
-    </row>
-    <row r="41" spans="1:8" ht="51">
+        <v>97</v>
+      </c>
+      <c r="G40" s="80"/>
+      <c r="H40" s="91"/>
+    </row>
+    <row r="41" spans="1:8" ht="63.75">
       <c r="A41" s="80" t="str">
-        <f t="shared" si="3"/>
-        <v>[Module2-29]</v>
+        <f t="shared" si="1"/>
+        <v>[Module2-30]</v>
       </c>
       <c r="B41" s="80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C41" s="80" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E41" s="80"/>
       <c r="F41" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="80"/>
-      <c r="H41" s="91"/>
+        <v>97</v>
+      </c>
+      <c r="G41" s="87"/>
+      <c r="H41" s="88"/>
     </row>
     <row r="42" spans="1:8" ht="63.75">
       <c r="A42" s="80" t="str">
-        <f t="shared" si="3"/>
-        <v>[Module2-30]</v>
+        <f t="shared" si="1"/>
+        <v>[Module2-31]</v>
       </c>
       <c r="B42" s="80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C42" s="80" t="s">
         <v>137</v>
       </c>
       <c r="D42" s="80" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E42" s="80"/>
       <c r="F42" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="87"/>
-      <c r="H42" s="88"/>
-    </row>
-    <row r="43" spans="1:8" ht="63.75">
+        <v>97</v>
+      </c>
+      <c r="G42" s="80"/>
+      <c r="H42" s="91"/>
+    </row>
+    <row r="43" spans="1:8" ht="51">
       <c r="A43" s="80" t="str">
-        <f t="shared" si="3"/>
-        <v>[Module2-31]</v>
+        <f t="shared" si="1"/>
+        <v>[Module2-32]</v>
       </c>
       <c r="B43" s="80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D43" s="80" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E43" s="80"/>
       <c r="F43" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="80"/>
-      <c r="H43" s="91"/>
-    </row>
-    <row r="44" spans="1:8" ht="51">
+        <v>97</v>
+      </c>
+      <c r="G43" s="87"/>
+      <c r="H43" s="88"/>
+    </row>
+    <row r="44" spans="1:8" ht="63.75">
       <c r="A44" s="80" t="str">
-        <f t="shared" si="3"/>
-        <v>[Module2-32]</v>
+        <f t="shared" si="1"/>
+        <v>[Module2-33]</v>
       </c>
       <c r="B44" s="80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C44" s="80" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D44" s="80" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E44" s="80"/>
       <c r="F44" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="87"/>
-      <c r="H44" s="88"/>
-    </row>
-    <row r="45" spans="1:8" ht="63.75">
+        <v>97</v>
+      </c>
+      <c r="G44" s="80"/>
+      <c r="H44" s="91"/>
+    </row>
+    <row r="45" spans="1:8" ht="51">
       <c r="A45" s="80" t="str">
-        <f t="shared" si="3"/>
-        <v>[Module2-33]</v>
+        <f t="shared" si="1"/>
+        <v>[Module2-34]</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C45" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="80" t="s">
         <v>143</v>
-      </c>
-      <c r="D45" s="80" t="s">
-        <v>148</v>
       </c>
       <c r="E45" s="80"/>
       <c r="F45" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" s="80"/>
-      <c r="H45" s="91"/>
+        <v>97</v>
+      </c>
+      <c r="G45" s="87"/>
+      <c r="H45" s="88"/>
     </row>
     <row r="46" spans="1:8" ht="51">
       <c r="A46" s="80" t="str">
-        <f t="shared" si="3"/>
-        <v>[Module2-34]</v>
+        <f t="shared" si="1"/>
+        <v>[Module2-35]</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="80" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E46" s="80"/>
       <c r="F46" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" s="87"/>
-      <c r="H46" s="88"/>
-    </row>
-    <row r="47" spans="1:8" ht="51">
-      <c r="A47" s="80" t="str">
-        <f t="shared" si="3"/>
-        <v>[Module2-35]</v>
-      </c>
-      <c r="B47" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="80"/>
+      <c r="H46" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" s="80"/>
-      <c r="H47" s="91" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="76"/>
-      <c r="B48" s="76" t="s">
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="76"/>
+      <c r="B47" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="78"/>
+    </row>
+    <row r="48" spans="1:8" ht="38.25">
+      <c r="A48" s="80" t="str">
+        <f>IF(OR(B48&lt;&gt;"",D48&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+        <v>[Module2-36]</v>
+      </c>
+      <c r="B48" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="80"/>
+      <c r="H48" s="91"/>
+    </row>
+    <row r="49" spans="1:8" ht="51">
+      <c r="A49" s="80" t="str">
+        <f>IF(OR(B49&lt;&gt;"",D49&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+        <v>[Module2-37]</v>
+      </c>
+      <c r="B49" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="78"/>
-    </row>
-    <row r="49" spans="1:8" ht="38.25">
-      <c r="A49" s="80" t="str">
-        <f>IF(OR(B49&lt;&gt;"",D49&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
-        <v>[Module2-36]</v>
-      </c>
-      <c r="B49" s="80" t="s">
+      <c r="D49" s="80" t="s">
         <v>169</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>109</v>
       </c>
       <c r="E49" s="80"/>
       <c r="F49" s="80" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G49" s="80"/>
       <c r="H49" s="91"/>
     </row>
-    <row r="50" spans="1:8" ht="51">
-      <c r="A50" s="80" t="str">
-        <f>IF(OR(B50&lt;&gt;"",D50&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
-        <v>[Module2-37]</v>
-      </c>
-      <c r="B50" s="80" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="76"/>
+      <c r="B50" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="80" t="s">
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="78"/>
+    </row>
+    <row r="51" spans="1:8" ht="102">
+      <c r="A51" s="80" t="str">
+        <f>IF(OR(B51&lt;&gt;"",D51&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module2-38]</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="80" t="s">
+      <c r="D51" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="80"/>
-      <c r="H50" s="91"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="80"/>
+      <c r="H51" s="91"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="76"/>
+      <c r="B52" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="78"/>
+    </row>
+    <row r="53" spans="1:8" ht="38.25">
+      <c r="A53" s="80" t="str">
+        <f>IF(OR(B53&lt;&gt;"",D53&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-14,"##")&amp;"]","")</f>
+        <v>[Module2-39]</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="80"/>
+      <c r="H53" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4600,7 +4616,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F109">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F103">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4611,8 +4627,10 @@
     <oddHeader>&amp;LFacilitate_Test Case\Company&amp;Rv1.0</oddHeader>
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"Tahoma,Regular"&amp;10Internal use&amp;R&amp;"tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="16383" man="1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="36" max="16383" man="1"/>
+    <brk id="49" max="10" man="1"/>
+    <brk id="51" max="10" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4638,15 +4656,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="B1" s="166" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
+      <c r="B1" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="92"/>
@@ -4662,14 +4680,14 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="164" t="s">
+      <c r="D3" s="153"/>
+      <c r="E3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="164"/>
+      <c r="F3" s="160"/>
       <c r="G3" s="95"/>
       <c r="H3" s="96"/>
     </row>
@@ -4677,14 +4695,14 @@
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="164"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="95"/>
       <c r="H4" s="96"/>
     </row>
@@ -4692,33 +4710,33 @@
       <c r="B5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="154" t="str">
+      <c r="C5" s="153" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="164" t="s">
+      <c r="D5" s="153"/>
+      <c r="E5" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="164"/>
+      <c r="F5" s="160"/>
       <c r="G5" s="95"/>
       <c r="H5" s="98" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1">
       <c r="A6" s="92"/>
       <c r="B6" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="165" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
+        <v>59</v>
+      </c>
+      <c r="C6" s="161" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="92"/>
@@ -4745,7 +4763,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="105" t="s">
         <v>33</v>
@@ -4757,13 +4775,13 @@
         <v>38</v>
       </c>
       <c r="G9" s="106" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H9" s="107" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I9" s="107" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4815,7 +4833,7 @@
       </c>
       <c r="E11" s="111">
         <f>Module2!B6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="111">
         <f>Module2!C6</f>
@@ -4831,7 +4849,7 @@
       </c>
       <c r="I11" s="111">
         <f>Module2!F6</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4849,7 +4867,7 @@
       <c r="A13" s="108"/>
       <c r="B13" s="114"/>
       <c r="C13" s="115" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D13" s="116">
         <f t="shared" ref="D13:I13" si="0">SUM(D8:D12)</f>
@@ -4857,7 +4875,7 @@
       </c>
       <c r="E13" s="116">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="116">
         <f t="shared" si="0"/>
@@ -4873,7 +4891,7 @@
       </c>
       <c r="I13" s="117">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4890,15 +4908,15 @@
       <c r="A15" s="101"/>
       <c r="B15" s="101"/>
       <c r="C15" s="121" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15" s="101"/>
       <c r="E15" s="122">
         <f>(D13+E13)*100/(I13-H13-G13)</f>
-        <v>88.63636363636364</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G15" s="101"/>
       <c r="H15" s="72"/>
@@ -4907,15 +4925,15 @@
       <c r="A16" s="101"/>
       <c r="B16" s="101"/>
       <c r="C16" s="121" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D16" s="101"/>
       <c r="E16" s="122">
         <f>D13*100/(D13+E13)</f>
-        <v>94.871794871794876</v>
+        <v>92.5</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G16" s="101"/>
       <c r="H16" s="72"/>
@@ -4960,6 +4978,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1696f36ed93db054fc8f4d62be39c1ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bffc5b2d08ab4fb7daf98c77989d8342" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5333,15 +5360,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A9143EA-EABB-44A8-85B6-CBB9E015E4E9}">
   <ds:schemaRefs>
@@ -5361,6 +5379,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{898618FE-843B-48E6-B1F2-2AB76D41F459}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5377,12 +5403,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>